--- a/monitoramento_chuvas.xlsx
+++ b/monitoramento_chuvas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -654,6 +654,190 @@
       </c>
       <c r="E10" t="n">
         <v>20.6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>22:09</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ATIBAINHA</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>22:09</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>BIRITIBA</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>22:09</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ENGORDADOR</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>22:09</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>FAZENDA CONQUISTA</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>22:09</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>FAZENDA MOSA</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>22:09</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>PAIVA CASTRO</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>22:10</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>PARQUE TORONTO</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>22:10</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>PEDRO BEICHT</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>21.3</v>
       </c>
     </row>
   </sheetData>
@@ -703,7 +887,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21:58</t>
+          <t>22:10</t>
         </is>
       </c>
     </row>
@@ -714,11 +898,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>21:58</t>
+          <t>22:10</t>
         </is>
       </c>
     </row>
@@ -733,7 +917,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>21:58</t>
+          <t>22:10</t>
         </is>
       </c>
     </row>
@@ -748,7 +932,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>21:58</t>
+          <t>22:10</t>
         </is>
       </c>
     </row>
@@ -763,7 +947,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>21:58</t>
+          <t>22:10</t>
         </is>
       </c>
     </row>
@@ -778,7 +962,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>21:58</t>
+          <t>22:10</t>
         </is>
       </c>
     </row>
@@ -793,7 +977,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>21:58</t>
+          <t>22:10</t>
         </is>
       </c>
     </row>
@@ -808,7 +992,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>21:58</t>
+          <t>22:10</t>
         </is>
       </c>
     </row>
@@ -823,7 +1007,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>21:58</t>
+          <t>22:10</t>
         </is>
       </c>
     </row>

--- a/monitoramento_chuvas.xlsx
+++ b/monitoramento_chuvas.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Base Bruta" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Total Dia" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Resumo Mensal" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -838,6 +838,213 @@
       </c>
       <c r="E18" t="n">
         <v>21.3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>22:19</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>ATIBAINHA</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>22:19</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>BIRITIBA</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>22:19</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>ENGORDADOR</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>22:19</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>FAZENDA CONQUISTA</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>22:19</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>FAZENDA MOSA</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>22:19</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>PAIVA CASTRO</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>22:19</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>PARQUE TORONTO</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>22:19</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>PEDRO BEICHT</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>22:19</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>RIO PIAGUI</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E27" t="n">
+        <v>20.5</v>
       </c>
     </row>
   </sheetData>
@@ -851,7 +1058,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -867,12 +1074,17 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Total Acumulado Hoje (mm)</t>
+          <t>Mês</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Ultima Leitura</t>
+          <t>Total Acumulado (mm)</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Última Atualização</t>
         </is>
       </c>
     </row>
@@ -882,12 +1094,17 @@
           <t>ATIBAINHA</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>22:10</t>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>February / 2026</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17/02 22:19</t>
         </is>
       </c>
     </row>
@@ -897,12 +1114,17 @@
           <t>BIRITIBA</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>22:10</t>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>February / 2026</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17/02 22:19</t>
         </is>
       </c>
     </row>
@@ -912,12 +1134,17 @@
           <t>ENGORDADOR</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>22:10</t>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>February / 2026</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17/02 22:19</t>
         </is>
       </c>
     </row>
@@ -927,12 +1154,17 @@
           <t>FAZENDA CONQUISTA</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>22:10</t>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>February / 2026</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17/02 22:19</t>
         </is>
       </c>
     </row>
@@ -942,12 +1174,17 @@
           <t>FAZENDA MOSA</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>22:10</t>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>February / 2026</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17/02 22:19</t>
         </is>
       </c>
     </row>
@@ -957,12 +1194,17 @@
           <t>PAIVA CASTRO</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>22:10</t>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>February / 2026</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17/02 22:19</t>
         </is>
       </c>
     </row>
@@ -972,12 +1214,17 @@
           <t>PARQUE TORONTO</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>22:10</t>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>February / 2026</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17/02 22:19</t>
         </is>
       </c>
     </row>
@@ -987,12 +1234,17 @@
           <t>PEDRO BEICHT</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>22:10</t>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>February / 2026</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17/02 22:19</t>
         </is>
       </c>
     </row>
@@ -1002,12 +1254,17 @@
           <t>RIO PIAGUI</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>22:10</t>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>February / 2026</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17/02 22:19</t>
         </is>
       </c>
     </row>

--- a/monitoramento_chuvas.xlsx
+++ b/monitoramento_chuvas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1045,6 +1045,213 @@
       </c>
       <c r="E27" t="n">
         <v>20.5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>22:36</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>ATIBAINHA</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>22:36</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>BIRITIBA</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>22:36</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>ENGORDADOR</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>22:36</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>FAZENDA CONQUISTA</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>22:36</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>FAZENDA MOSA</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>22:36</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>PAIVA CASTRO</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>22:36</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>PARQUE TORONTO</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>22:36</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>PEDRO BEICHT</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>22:36</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>RIO PIAGUI</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1104,7 +1311,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17/02 22:19</t>
+          <t>17/02 22:36</t>
         </is>
       </c>
     </row>
@@ -1124,7 +1331,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17/02 22:19</t>
+          <t>17/02 22:36</t>
         </is>
       </c>
     </row>
@@ -1144,7 +1351,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17/02 22:19</t>
+          <t>17/02 22:36</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1371,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>17/02 22:19</t>
+          <t>17/02 22:36</t>
         </is>
       </c>
     </row>
@@ -1184,7 +1391,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>17/02 22:19</t>
+          <t>17/02 22:36</t>
         </is>
       </c>
     </row>
@@ -1204,7 +1411,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>17/02 22:19</t>
+          <t>17/02 22:36</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1431,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>17/02 22:19</t>
+          <t>17/02 22:36</t>
         </is>
       </c>
     </row>
@@ -1244,7 +1451,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>17/02 22:19</t>
+          <t>17/02 22:36</t>
         </is>
       </c>
     </row>
@@ -1264,7 +1471,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>17/02 22:19</t>
+          <t>17/02 22:36</t>
         </is>
       </c>
     </row>

--- a/monitoramento_chuvas.xlsx
+++ b/monitoramento_chuvas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1251,6 +1251,213 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>22:44</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>ATIBAINHA</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>22:44</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>BIRITIBA</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>22:44</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>ENGORDADOR</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>22:44</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>FAZENDA CONQUISTA</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>22:44</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>FAZENDA MOSA</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>22:44</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>PAIVA CASTRO</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>22:44</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>PARQUE TORONTO</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>22:44</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>PEDRO BEICHT</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>22:44</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>RIO PIAGUI</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1311,7 +1518,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17/02 22:36</t>
+          <t>17/02 22:44</t>
         </is>
       </c>
     </row>
@@ -1331,7 +1538,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17/02 22:36</t>
+          <t>17/02 22:44</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1558,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17/02 22:36</t>
+          <t>17/02 22:44</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1578,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>17/02 22:36</t>
+          <t>17/02 22:44</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1598,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>17/02 22:36</t>
+          <t>17/02 22:44</t>
         </is>
       </c>
     </row>
@@ -1411,7 +1618,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>17/02 22:36</t>
+          <t>17/02 22:44</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1638,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>17/02 22:36</t>
+          <t>17/02 22:44</t>
         </is>
       </c>
     </row>
@@ -1451,7 +1658,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>17/02 22:36</t>
+          <t>17/02 22:44</t>
         </is>
       </c>
     </row>
@@ -1471,7 +1678,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>17/02 22:36</t>
+          <t>17/02 22:44</t>
         </is>
       </c>
     </row>

--- a/monitoramento_chuvas.xlsx
+++ b/monitoramento_chuvas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1458,6 +1458,213 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>22:48</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>ATIBAINHA</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>22:48</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>BIRITIBA</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>22:48</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>ENGORDADOR</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>22:48</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>FAZENDA CONQUISTA</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>22:48</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>FAZENDA MOSA</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>22:48</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>PAIVA CASTRO</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>22:48</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>PARQUE TORONTO</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>22:48</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>PEDRO BEICHT</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>22:48</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>RIO PIAGUI</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1518,7 +1725,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17/02 22:44</t>
+          <t>17/02 22:48</t>
         </is>
       </c>
     </row>
@@ -1538,7 +1745,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17/02 22:44</t>
+          <t>17/02 22:48</t>
         </is>
       </c>
     </row>
@@ -1558,7 +1765,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17/02 22:44</t>
+          <t>17/02 22:48</t>
         </is>
       </c>
     </row>
@@ -1578,7 +1785,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>17/02 22:44</t>
+          <t>17/02 22:48</t>
         </is>
       </c>
     </row>
@@ -1598,7 +1805,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>17/02 22:44</t>
+          <t>17/02 22:48</t>
         </is>
       </c>
     </row>
@@ -1618,7 +1825,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>17/02 22:44</t>
+          <t>17/02 22:48</t>
         </is>
       </c>
     </row>
@@ -1638,7 +1845,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>17/02 22:44</t>
+          <t>17/02 22:48</t>
         </is>
       </c>
     </row>
@@ -1658,7 +1865,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>17/02 22:44</t>
+          <t>17/02 22:48</t>
         </is>
       </c>
     </row>
@@ -1678,7 +1885,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>17/02 22:44</t>
+          <t>17/02 22:48</t>
         </is>
       </c>
     </row>

--- a/monitoramento_chuvas.xlsx
+++ b/monitoramento_chuvas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1665,6 +1665,213 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>22:58</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>ATIBAINHA</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>22:58</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>BIRITIBA</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>22:58</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>ENGORDADOR</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>22:58</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>FAZENDA CONQUISTA</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>22:58</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>FAZENDA MOSA</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>22:58</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>PAIVA CASTRO</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>22:58</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>PARQUE TORONTO</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>22:58</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>PEDRO BEICHT</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>22:58</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>RIO PIAGUI</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1725,7 +1932,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17/02 22:48</t>
+          <t>17/02 22:58</t>
         </is>
       </c>
     </row>
@@ -1745,7 +1952,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17/02 22:48</t>
+          <t>17/02 22:58</t>
         </is>
       </c>
     </row>
@@ -1765,7 +1972,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17/02 22:48</t>
+          <t>17/02 22:58</t>
         </is>
       </c>
     </row>
@@ -1785,7 +1992,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>17/02 22:48</t>
+          <t>17/02 22:58</t>
         </is>
       </c>
     </row>
@@ -1805,7 +2012,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>17/02 22:48</t>
+          <t>17/02 22:58</t>
         </is>
       </c>
     </row>
@@ -1825,7 +2032,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>17/02 22:48</t>
+          <t>17/02 22:58</t>
         </is>
       </c>
     </row>
@@ -1845,7 +2052,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>17/02 22:48</t>
+          <t>17/02 22:58</t>
         </is>
       </c>
     </row>
@@ -1865,7 +2072,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>17/02 22:48</t>
+          <t>17/02 22:58</t>
         </is>
       </c>
     </row>
@@ -1885,7 +2092,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>17/02 22:48</t>
+          <t>17/02 22:58</t>
         </is>
       </c>
     </row>

--- a/monitoramento_chuvas.xlsx
+++ b/monitoramento_chuvas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1872,6 +1872,213 @@
         <v>0</v>
       </c>
       <c r="E63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>23:02</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>ATIBAINHA</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>23:02</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>BIRITIBA</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>23:02</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>ENGORDADOR</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>23:02</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>FAZENDA CONQUISTA</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>23:02</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>FAZENDA MOSA</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>23:02</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>PAIVA CASTRO</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>23:02</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>PARQUE TORONTO</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>23:02</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>PEDRO BEICHT</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>23:02</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>RIO PIAGUI</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1932,7 +2139,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17/02 22:58</t>
+          <t>17/02 23:02</t>
         </is>
       </c>
     </row>
@@ -1952,7 +2159,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17/02 22:58</t>
+          <t>17/02 23:02</t>
         </is>
       </c>
     </row>
@@ -1972,7 +2179,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17/02 22:58</t>
+          <t>17/02 23:02</t>
         </is>
       </c>
     </row>
@@ -1992,7 +2199,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>17/02 22:58</t>
+          <t>17/02 23:02</t>
         </is>
       </c>
     </row>
@@ -2012,7 +2219,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>17/02 22:58</t>
+          <t>17/02 23:02</t>
         </is>
       </c>
     </row>
@@ -2032,7 +2239,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>17/02 22:58</t>
+          <t>17/02 23:02</t>
         </is>
       </c>
     </row>
@@ -2052,7 +2259,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>17/02 22:58</t>
+          <t>17/02 23:02</t>
         </is>
       </c>
     </row>
@@ -2072,7 +2279,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>17/02 22:58</t>
+          <t>17/02 23:02</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2299,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>17/02 22:58</t>
+          <t>17/02 23:02</t>
         </is>
       </c>
     </row>

--- a/monitoramento_chuvas.xlsx
+++ b/monitoramento_chuvas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2080,6 +2080,213 @@
       </c>
       <c r="E72" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>23:06</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>ATIBAINHA</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>23:06</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>BIRITIBA</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E74" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>23:06</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>ENGORDADOR</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>23:06</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>FAZENDA CONQUISTA</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>23:06</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>FAZENDA MOSA</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>23:06</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>PAIVA CASTRO</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>23:06</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>PARQUE TORONTO</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>23:06</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>PEDRO BEICHT</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>23:06</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>RIO PIAGUI</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E81" t="n">
+        <v>20.4</v>
       </c>
     </row>
   </sheetData>
@@ -2139,7 +2346,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17/02 23:02</t>
+          <t>17/02 23:06</t>
         </is>
       </c>
     </row>
@@ -2155,11 +2362,11 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17/02 23:02</t>
+          <t>17/02 23:06</t>
         </is>
       </c>
     </row>
@@ -2179,7 +2386,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17/02 23:02</t>
+          <t>17/02 23:06</t>
         </is>
       </c>
     </row>
@@ -2199,7 +2406,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>17/02 23:02</t>
+          <t>17/02 23:06</t>
         </is>
       </c>
     </row>
@@ -2219,7 +2426,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>17/02 23:02</t>
+          <t>17/02 23:06</t>
         </is>
       </c>
     </row>
@@ -2239,7 +2446,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>17/02 23:02</t>
+          <t>17/02 23:06</t>
         </is>
       </c>
     </row>
@@ -2259,7 +2466,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>17/02 23:02</t>
+          <t>17/02 23:06</t>
         </is>
       </c>
     </row>
@@ -2279,7 +2486,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>17/02 23:02</t>
+          <t>17/02 23:06</t>
         </is>
       </c>
     </row>
@@ -2295,11 +2502,11 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>17/02 23:02</t>
+          <t>17/02 23:06</t>
         </is>
       </c>
     </row>

--- a/monitoramento_chuvas.xlsx
+++ b/monitoramento_chuvas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2286,6 +2286,213 @@
         <v>0.1</v>
       </c>
       <c r="E81" t="n">
+        <v>20.4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>23:10</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>ATIBAINHA</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>23:10</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>BIRITIBA</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E83" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>23:10</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>ENGORDADOR</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>23:10</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>FAZENDA CONQUISTA</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>23:10</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>FAZENDA MOSA</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>23:10</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>PAIVA CASTRO</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>23:10</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>PARQUE TORONTO</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>23:10</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>PEDRO BEICHT</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>23:10</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>RIO PIAGUI</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E90" t="n">
         <v>20.4</v>
       </c>
     </row>
@@ -2346,7 +2553,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17/02 23:06</t>
+          <t>17/02 23:10</t>
         </is>
       </c>
     </row>
@@ -2362,11 +2569,11 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17/02 23:06</t>
+          <t>17/02 23:10</t>
         </is>
       </c>
     </row>
@@ -2386,7 +2593,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17/02 23:06</t>
+          <t>17/02 23:10</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2613,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>17/02 23:06</t>
+          <t>17/02 23:10</t>
         </is>
       </c>
     </row>
@@ -2426,7 +2633,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>17/02 23:06</t>
+          <t>17/02 23:10</t>
         </is>
       </c>
     </row>
@@ -2446,7 +2653,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>17/02 23:06</t>
+          <t>17/02 23:10</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2673,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>17/02 23:06</t>
+          <t>17/02 23:10</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2693,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>17/02 23:06</t>
+          <t>17/02 23:10</t>
         </is>
       </c>
     </row>
@@ -2502,11 +2709,11 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>17/02 23:06</t>
+          <t>17/02 23:10</t>
         </is>
       </c>
     </row>

--- a/monitoramento_chuvas.xlsx
+++ b/monitoramento_chuvas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E90"/>
+  <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2493,6 +2493,213 @@
         <v>0.1</v>
       </c>
       <c r="E90" t="n">
+        <v>20.4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>23:12</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>ATIBAINHA</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>23:12</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>BIRITIBA</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E92" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>23:12</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>ENGORDADOR</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>23:12</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>FAZENDA CONQUISTA</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>23:12</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>FAZENDA MOSA</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>23:12</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>PAIVA CASTRO</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>23:12</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>PARQUE TORONTO</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>23:12</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>PEDRO BEICHT</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>23:12</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>RIO PIAGUI</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E99" t="n">
         <v>20.4</v>
       </c>
     </row>
@@ -2553,7 +2760,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17/02 23:10</t>
+          <t>17/02 23:12</t>
         </is>
       </c>
     </row>
@@ -2569,11 +2776,11 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17/02 23:10</t>
+          <t>17/02 23:12</t>
         </is>
       </c>
     </row>
@@ -2593,7 +2800,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17/02 23:10</t>
+          <t>17/02 23:12</t>
         </is>
       </c>
     </row>
@@ -2613,7 +2820,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>17/02 23:10</t>
+          <t>17/02 23:12</t>
         </is>
       </c>
     </row>
@@ -2633,7 +2840,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>17/02 23:10</t>
+          <t>17/02 23:12</t>
         </is>
       </c>
     </row>
@@ -2653,7 +2860,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>17/02 23:10</t>
+          <t>17/02 23:12</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2880,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>17/02 23:10</t>
+          <t>17/02 23:12</t>
         </is>
       </c>
     </row>
@@ -2693,7 +2900,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>17/02 23:10</t>
+          <t>17/02 23:12</t>
         </is>
       </c>
     </row>
@@ -2709,11 +2916,11 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>17/02 23:10</t>
+          <t>17/02 23:12</t>
         </is>
       </c>
     </row>

--- a/monitoramento_chuvas.xlsx
+++ b/monitoramento_chuvas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E99"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2701,6 +2701,144 @@
       </c>
       <c r="E99" t="n">
         <v>20.4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>23:20</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>ATIBAINHA</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>23:20</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>BIRITIBA</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E101" t="n">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>23:20</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>ENGORDADOR</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>23:21</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>PARQUE TORONTO</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>23:21</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>PEDRO BEICHT</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>23:21</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>RIO PIAGUI</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E105" t="n">
+        <v>20.3</v>
       </c>
     </row>
   </sheetData>
@@ -2714,7 +2852,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2738,11 +2876,6 @@
           <t>Total Acumulado (mm)</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Última Atualização</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2758,11 +2891,6 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>17/02 23:12</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2776,12 +2904,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>17/02 23:12</t>
-        </is>
+        <v>0.6000000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -2798,11 +2921,6 @@
       <c r="C4" t="n">
         <v>0</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>17/02 23:12</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2818,11 +2936,6 @@
       <c r="C5" t="n">
         <v>0</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>17/02 23:12</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2838,11 +2951,6 @@
       <c r="C6" t="n">
         <v>0</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>17/02 23:12</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2858,11 +2966,6 @@
       <c r="C7" t="n">
         <v>0</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>17/02 23:12</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2878,11 +2981,6 @@
       <c r="C8" t="n">
         <v>0</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>17/02 23:12</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2898,11 +2996,6 @@
       <c r="C9" t="n">
         <v>0</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>17/02 23:12</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2916,12 +3009,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>17/02 23:12</t>
-        </is>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/monitoramento_chuvas.xlsx
+++ b/monitoramento_chuvas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:E112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2838,6 +2838,167 @@
         <v>0.1</v>
       </c>
       <c r="E105" t="n">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>23:26</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>ATIBAINHA</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>23:26</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>BIRITIBA</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E107" t="n">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>23:26</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>ENGORDADOR</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>23:27</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>FAZENDA MOSA</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>23:27</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>PAIVA CASTRO</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>23:27</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>PARQUE TORONTO</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>23:28</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>RIO PIAGUI</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E112" t="n">
         <v>20.3</v>
       </c>
     </row>
@@ -2904,7 +3065,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -3009,7 +3170,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
     </row>
   </sheetData>

--- a/monitoramento_chuvas.xlsx
+++ b/monitoramento_chuvas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E112"/>
+  <dimension ref="A1:E118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3000,6 +3000,144 @@
       </c>
       <c r="E112" t="n">
         <v>20.3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>23:29</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>ATIBAINHA</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>23:29</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>BIRITIBA</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E114" t="n">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>23:29</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>ENGORDADOR</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>PARQUE TORONTO</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>0</v>
+      </c>
+      <c r="E116" t="n">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>PEDRO BEICHT</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>RIO PIAGUI</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E118" t="n">
+        <v>20.2</v>
       </c>
     </row>
   </sheetData>
@@ -3065,7 +3203,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4">
@@ -3170,7 +3308,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/monitoramento_chuvas.xlsx
+++ b/monitoramento_chuvas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E118"/>
+  <dimension ref="A1:E124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3138,6 +3138,144 @@
       </c>
       <c r="E118" t="n">
         <v>20.2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>02:17</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>ATIBAINHA</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>02:17</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>BIRITIBA</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>02:17</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>ENGORDADOR</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>20.4</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>02:18</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>PARQUE TORONTO</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>02:18</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>PEDRO BEICHT</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" t="n">
+        <v>19.9</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>02:18</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>RIO PIAGUI</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E124" t="n">
+        <v>19.6</v>
       </c>
     </row>
   </sheetData>
@@ -3308,7 +3446,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/monitoramento_chuvas.xlsx
+++ b/monitoramento_chuvas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E124"/>
+  <dimension ref="A1:E130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3276,6 +3276,144 @@
       </c>
       <c r="E124" t="n">
         <v>19.6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>05:02</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>ATIBAINHA</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>05:02</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>BIRITIBA</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" t="n">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>05:02</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>ENGORDADOR</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>19.4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>05:03</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>PARQUE TORONTO</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>20.4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>05:03</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>PEDRO BEICHT</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>0</v>
+      </c>
+      <c r="E129" t="n">
+        <v>19.4</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>05:03</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>RIO PIAGUI</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>0</v>
+      </c>
+      <c r="E130" t="n">
+        <v>19.7</v>
       </c>
     </row>
   </sheetData>

--- a/monitoramento_chuvas.xlsx
+++ b/monitoramento_chuvas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E130"/>
+  <dimension ref="A1:E136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3414,6 +3414,144 @@
       </c>
       <c r="E130" t="n">
         <v>19.7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>08:26</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>ATIBAINHA</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>0</v>
+      </c>
+      <c r="E131" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>08:26</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>BIRITIBA</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>0</v>
+      </c>
+      <c r="E132" t="n">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>08:26</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>ENGORDADOR</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>0</v>
+      </c>
+      <c r="E133" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>08:27</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>PARQUE TORONTO</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>0</v>
+      </c>
+      <c r="E134" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>08:27</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>PEDRO BEICHT</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>08:27</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>RIO PIAGUI</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/monitoramento_chuvas.xlsx
+++ b/monitoramento_chuvas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E136"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3552,6 +3552,167 @@
       </c>
       <c r="E136" t="n">
         <v>23</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>09:35</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>ATIBAINHA</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>0</v>
+      </c>
+      <c r="E137" t="n">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>09:35</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>BIRITIBA</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>09:35</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>ENGORDADOR</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>09:35</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>PAIVA CASTRO</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>0</v>
+      </c>
+      <c r="E140" t="n">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>09:35</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>PARQUE TORONTO</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>0</v>
+      </c>
+      <c r="E141" t="n">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>09:36</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>PEDRO BEICHT</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>0</v>
+      </c>
+      <c r="E142" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>09:36</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>RIO PIAGUI</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>0</v>
+      </c>
+      <c r="E143" t="n">
+        <v>24.3</v>
       </c>
     </row>
   </sheetData>

--- a/monitoramento_chuvas.xlsx
+++ b/monitoramento_chuvas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E143"/>
+  <dimension ref="A1:E148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3713,6 +3713,121 @@
       </c>
       <c r="E143" t="n">
         <v>24.3</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>09:41</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>ATIBAINHA</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>0</v>
+      </c>
+      <c r="E144" t="n">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>09:41</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>BIRITIBA</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>0</v>
+      </c>
+      <c r="E145" t="n">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>09:42</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>FAZENDA CONQUISTA</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>0</v>
+      </c>
+      <c r="E146" t="n">
+        <v>28.4</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>09:44</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>PARQUE TORONTO</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>0</v>
+      </c>
+      <c r="E147" t="n">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>09:44</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>PEDRO BEICHT</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>0</v>
+      </c>
+      <c r="E148" t="n">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/monitoramento_chuvas.xlsx
+++ b/monitoramento_chuvas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E148"/>
+  <dimension ref="A1:E157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3828,6 +3828,213 @@
       </c>
       <c r="E148" t="n">
         <v>25</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>09:52</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>ATIBAINHA</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>0</v>
+      </c>
+      <c r="E149" t="n">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>09:52</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>BIRITIBA</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>0</v>
+      </c>
+      <c r="E150" t="n">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>09:52</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>ENGORDADOR</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>0</v>
+      </c>
+      <c r="E151" t="n">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>09:52</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>FAZENDA CONQUISTA</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>0</v>
+      </c>
+      <c r="E152" t="n">
+        <v>28.7</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>09:52</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>FAZENDA MOSA</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>0</v>
+      </c>
+      <c r="E153" t="n">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>09:52</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>PAIVA CASTRO</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>0</v>
+      </c>
+      <c r="E154" t="n">
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>09:52</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>PARQUE TORONTO</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>0</v>
+      </c>
+      <c r="E155" t="n">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>09:52</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>PEDRO BEICHT</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>0</v>
+      </c>
+      <c r="E156" t="n">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>09:52</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>RIO PIAGUI</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>0</v>
+      </c>
+      <c r="E157" t="n">
+        <v>24.5</v>
       </c>
     </row>
   </sheetData>
@@ -3862,7 +4069,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Total Acumulado (mm)</t>
+          <t>Precipitacao (mm)</t>
         </is>
       </c>
     </row>

--- a/monitoramento_chuvas.xlsx
+++ b/monitoramento_chuvas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E157"/>
+  <dimension ref="A1:E166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4035,6 +4035,213 @@
       </c>
       <c r="E157" t="n">
         <v>24.5</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>11:36</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>ATIBAINHA</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>0</v>
+      </c>
+      <c r="E158" t="n">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>11:36</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>BIRITIBA</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>0</v>
+      </c>
+      <c r="E159" t="n">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>11:36</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>ENGORDADOR</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E160" t="n">
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>11:36</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>FAZENDA CONQUISTA</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>0</v>
+      </c>
+      <c r="E161" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>11:36</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>FAZENDA MOSA</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>0</v>
+      </c>
+      <c r="E162" t="n">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>11:36</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>PAIVA CASTRO</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E163" t="n">
+        <v>28.4</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>11:36</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>PARQUE TORONTO</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E164" t="n">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>11:36</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>PEDRO BEICHT</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E165" t="n">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>11:36</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>RIO PIAGUI</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>0</v>
+      </c>
+      <c r="E166" t="n">
+        <v>25.6</v>
       </c>
     </row>
   </sheetData>
@@ -4115,7 +4322,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5">
@@ -4160,7 +4367,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="8">
@@ -4175,7 +4382,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="9">
@@ -4190,7 +4397,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="10">

--- a/monitoramento_chuvas.xlsx
+++ b/monitoramento_chuvas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E166"/>
+  <dimension ref="A1:E175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4242,6 +4242,213 @@
       </c>
       <c r="E166" t="n">
         <v>25.6</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>14:59</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>ATIBAINHA</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E167" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>14:59</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>BIRITIBA</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E168" t="n">
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>14:59</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>ENGORDADOR</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>0</v>
+      </c>
+      <c r="E169" t="n">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>14:59</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>FAZENDA CONQUISTA</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>0</v>
+      </c>
+      <c r="E170" t="n">
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>14:59</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>FAZENDA MOSA</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>0</v>
+      </c>
+      <c r="E171" t="n">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>14:59</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>PAIVA CASTRO</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E172" t="n">
+        <v>27.9</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>14:59</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>PARQUE TORONTO</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E173" t="n">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>14:59</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>PEDRO BEICHT</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E174" t="n">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>14:59</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>RIO PIAGUI</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>3</v>
+      </c>
+      <c r="E175" t="n">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -4292,7 +4499,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3">
@@ -4307,7 +4514,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="4">
@@ -4367,7 +4574,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8">
@@ -4382,7 +4589,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="9">
@@ -4397,7 +4604,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.1</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="10">
@@ -4412,7 +4619,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>

--- a/monitoramento_chuvas.xlsx
+++ b/monitoramento_chuvas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E175"/>
+  <dimension ref="A1:E184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4449,6 +4449,213 @@
       </c>
       <c r="E175" t="n">
         <v>24</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>17:01</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>ATIBAINHA</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E176" t="n">
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>17:01</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>BIRITIBA</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E177" t="n">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>17:01</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>ENGORDADOR</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E178" t="n">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>17:02</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>FAZENDA CONQUISTA</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E179" t="n">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>17:02</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>FAZENDA MOSA</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>0</v>
+      </c>
+      <c r="E180" t="n">
+        <v>28.3</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>17:02</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>PAIVA CASTRO</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E181" t="n">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>17:02</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>PARQUE TORONTO</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E182" t="n">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>17:02</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>PEDRO BEICHT</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E183" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>17:02</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>RIO PIAGUI</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E184" t="n">
+        <v>22.9</v>
       </c>
     </row>
   </sheetData>
@@ -4499,7 +4706,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="3">
@@ -4514,7 +4721,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="4">
@@ -4529,7 +4736,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1</v>
+        <v>0.7999999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -4544,7 +4751,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6">
@@ -4574,7 +4781,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="8">
@@ -4589,7 +4796,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9">
@@ -4604,7 +4811,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="10">
@@ -4619,7 +4826,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/monitoramento_chuvas.xlsx
+++ b/monitoramento_chuvas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E184"/>
+  <dimension ref="A1:E193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4656,6 +4656,213 @@
       </c>
       <c r="E184" t="n">
         <v>22.9</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>19:02</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>ATIBAINHA</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E185" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>19:02</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>BIRITIBA</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>0</v>
+      </c>
+      <c r="E186" t="n">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>19:02</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>ENGORDADOR</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E187" t="n">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>19:02</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>FAZENDA CONQUISTA</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>0</v>
+      </c>
+      <c r="E188" t="n">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>19:02</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>FAZENDA MOSA</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E189" t="n">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>19:02</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>PAIVA CASTRO</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>0</v>
+      </c>
+      <c r="E190" t="n">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>19:02</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>PARQUE TORONTO</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>0</v>
+      </c>
+      <c r="E191" t="n">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>19:03</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>PEDRO BEICHT</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>0</v>
+      </c>
+      <c r="E192" t="n">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>19:03</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>RIO PIAGUI</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E193" t="n">
+        <v>20.7</v>
       </c>
     </row>
   </sheetData>
@@ -4706,7 +4913,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="3">
@@ -4736,7 +4943,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.7999999999999999</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="5">
@@ -4766,7 +4973,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7">
@@ -4826,7 +5033,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>7.6</v>
       </c>
     </row>
   </sheetData>

--- a/monitoramento_chuvas.xlsx
+++ b/monitoramento_chuvas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E193"/>
+  <dimension ref="A1:E202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4863,6 +4863,213 @@
       </c>
       <c r="E193" t="n">
         <v>20.7</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>20:57</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>ATIBAINHA</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E194" t="n">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>20:57</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>BIRITIBA</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>0</v>
+      </c>
+      <c r="E195" t="n">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>20:57</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>ENGORDADOR</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>0</v>
+      </c>
+      <c r="E196" t="n">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>20:57</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>FAZENDA CONQUISTA</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>0</v>
+      </c>
+      <c r="E197" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>20:57</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>FAZENDA MOSA</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E198" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>20:57</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>PAIVA CASTRO</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>0</v>
+      </c>
+      <c r="E199" t="n">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>20:57</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>PARQUE TORONTO</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>0</v>
+      </c>
+      <c r="E200" t="n">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>20:57</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>PEDRO BEICHT</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>0</v>
+      </c>
+      <c r="E201" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>20:57</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>RIO PIAGUI</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E202" t="n">
+        <v>19.7</v>
       </c>
     </row>
   </sheetData>
@@ -4913,7 +5120,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7</v>
+        <v>0.7999999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -4973,7 +5180,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7">
@@ -5033,7 +5240,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/monitoramento_chuvas.xlsx
+++ b/monitoramento_chuvas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E202"/>
+  <dimension ref="A1:E211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5070,6 +5070,213 @@
       </c>
       <c r="E202" t="n">
         <v>19.7</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>02:15</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>ATIBAINHA</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>0</v>
+      </c>
+      <c r="E203" t="n">
+        <v>19.1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>02:15</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>BIRITIBA</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>0</v>
+      </c>
+      <c r="E204" t="n">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>02:15</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>ENGORDADOR</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>0</v>
+      </c>
+      <c r="E205" t="n">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>02:15</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>FAZENDA CONQUISTA</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>0</v>
+      </c>
+      <c r="E206" t="n">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>02:15</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>FAZENDA MOSA</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>0</v>
+      </c>
+      <c r="E207" t="n">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>02:15</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>PAIVA CASTRO</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>0</v>
+      </c>
+      <c r="E208" t="n">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>02:15</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>PARQUE TORONTO</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>0</v>
+      </c>
+      <c r="E209" t="n">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>02:15</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>PEDRO BEICHT</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" t="n">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>02:15</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>RIO PIAGUI</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>0</v>
+      </c>
+      <c r="E211" t="n">
+        <v>18.7</v>
       </c>
     </row>
   </sheetData>

--- a/monitoramento_chuvas.xlsx
+++ b/monitoramento_chuvas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E211"/>
+  <dimension ref="A1:E220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5277,6 +5277,213 @@
       </c>
       <c r="E211" t="n">
         <v>18.7</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>05:02</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>ATIBAINHA</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>0</v>
+      </c>
+      <c r="E212" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>05:02</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>BIRITIBA</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>0</v>
+      </c>
+      <c r="E213" t="n">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>05:02</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>ENGORDADOR</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>0</v>
+      </c>
+      <c r="E214" t="n">
+        <v>18.9</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>05:02</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>FAZENDA CONQUISTA</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>0</v>
+      </c>
+      <c r="E215" t="n">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>05:02</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>FAZENDA MOSA</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>0</v>
+      </c>
+      <c r="E216" t="n">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>05:02</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>PAIVA CASTRO</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>0</v>
+      </c>
+      <c r="E217" t="n">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>05:02</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>PARQUE TORONTO</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>0</v>
+      </c>
+      <c r="E218" t="n">
+        <v>19.1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>05:02</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>PEDRO BEICHT</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>0</v>
+      </c>
+      <c r="E219" t="n">
+        <v>18.1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>05:02</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>RIO PIAGUI</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>0</v>
+      </c>
+      <c r="E220" t="n">
+        <v>18.1</v>
       </c>
     </row>
   </sheetData>

--- a/monitoramento_chuvas.xlsx
+++ b/monitoramento_chuvas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E220"/>
+  <dimension ref="A1:E229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5484,6 +5484,213 @@
       </c>
       <c r="E220" t="n">
         <v>18.1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>08:26</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>ATIBAINHA</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>0</v>
+      </c>
+      <c r="E221" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>08:26</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>BIRITIBA</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>0</v>
+      </c>
+      <c r="E222" t="n">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>08:26</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>ENGORDADOR</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>0</v>
+      </c>
+      <c r="E223" t="n">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>08:26</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>FAZENDA CONQUISTA</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E224" t="n">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>08:26</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>FAZENDA MOSA</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>0</v>
+      </c>
+      <c r="E225" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>08:26</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>PAIVA CASTRO</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>0</v>
+      </c>
+      <c r="E226" t="n">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>08:26</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>PARQUE TORONTO</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>0</v>
+      </c>
+      <c r="E227" t="n">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>08:26</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>PEDRO BEICHT</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>0</v>
+      </c>
+      <c r="E228" t="n">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>08:26</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>RIO PIAGUI</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>0</v>
+      </c>
+      <c r="E229" t="n">
+        <v>20.8</v>
       </c>
     </row>
   </sheetData>
@@ -5579,7 +5786,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6">

--- a/monitoramento_chuvas.xlsx
+++ b/monitoramento_chuvas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E229"/>
+  <dimension ref="A1:E238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5691,6 +5691,213 @@
       </c>
       <c r="E229" t="n">
         <v>20.8</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>11:38</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>ATIBAINHA</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>0</v>
+      </c>
+      <c r="E230" t="n">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>11:39</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>BIRITIBA</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>0</v>
+      </c>
+      <c r="E231" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>11:39</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>ENGORDADOR</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>0</v>
+      </c>
+      <c r="E232" t="n">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>11:39</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>FAZENDA CONQUISTA</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>0</v>
+      </c>
+      <c r="E233" t="n">
+        <v>27.7</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>11:39</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>FAZENDA MOSA</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>0</v>
+      </c>
+      <c r="E234" t="n">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>11:39</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>PAIVA CASTRO</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>0</v>
+      </c>
+      <c r="E235" t="n">
+        <v>28.3</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>11:39</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>PARQUE TORONTO</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>0</v>
+      </c>
+      <c r="E236" t="n">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>11:39</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>PEDRO BEICHT</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>0</v>
+      </c>
+      <c r="E237" t="n">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>11:39</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>RIO PIAGUI</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>0</v>
+      </c>
+      <c r="E238" t="n">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/monitoramento_chuvas.xlsx
+++ b/monitoramento_chuvas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E238"/>
+  <dimension ref="A1:E247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5898,6 +5898,213 @@
       </c>
       <c r="E238" t="n">
         <v>24</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>ATIBAINHA</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>0</v>
+      </c>
+      <c r="E239" t="n">
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>BIRITIBA</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>0</v>
+      </c>
+      <c r="E240" t="n">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>ENGORDADOR</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>0</v>
+      </c>
+      <c r="E241" t="n">
+        <v>29.3</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>FAZENDA CONQUISTA</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>0</v>
+      </c>
+      <c r="E242" t="n">
+        <v>27.9</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>15:01</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>FAZENDA MOSA</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>0</v>
+      </c>
+      <c r="E243" t="n">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>15:01</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>PAIVA CASTRO</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E244" t="n">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>15:01</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>PARQUE TORONTO</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E245" t="n">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>15:01</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>PEDRO BEICHT</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E246" t="n">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>15:01</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>RIO PIAGUI</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E247" t="n">
+        <v>24.8</v>
       </c>
     </row>
   </sheetData>
@@ -6023,7 +6230,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -6038,7 +6245,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="9">
@@ -6053,7 +6260,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="10">
@@ -6068,7 +6275,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
     </row>
   </sheetData>

--- a/monitoramento_chuvas.xlsx
+++ b/monitoramento_chuvas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E247"/>
+  <dimension ref="A1:E256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6104,6 +6104,213 @@
         <v>0.2</v>
       </c>
       <c r="E247" t="n">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>17:02</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>ATIBAINHA</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>0</v>
+      </c>
+      <c r="E248" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>17:03</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>BIRITIBA</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>0</v>
+      </c>
+      <c r="E249" t="n">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>17:03</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>ENGORDADOR</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>0</v>
+      </c>
+      <c r="E250" t="n">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>17:03</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>FAZENDA CONQUISTA</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>0</v>
+      </c>
+      <c r="E251" t="n">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>17:03</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>FAZENDA MOSA</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>0</v>
+      </c>
+      <c r="E252" t="n">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>17:03</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>PAIVA CASTRO</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E253" t="n">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>17:03</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>PARQUE TORONTO</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E254" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>17:03</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>PEDRO BEICHT</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E255" t="n">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>17:03</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>RIO PIAGUI</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>0</v>
+      </c>
+      <c r="E256" t="n">
         <v>24.8</v>
       </c>
     </row>
@@ -6230,7 +6437,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="8">
@@ -6245,7 +6452,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="9">
@@ -6260,7 +6467,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="10">

--- a/monitoramento_chuvas.xlsx
+++ b/monitoramento_chuvas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E256"/>
+  <dimension ref="A1:E265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6312,6 +6312,213 @@
       </c>
       <c r="E256" t="n">
         <v>24.8</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>ATIBAINHA</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>0</v>
+      </c>
+      <c r="E257" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>BIRITIBA</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>0</v>
+      </c>
+      <c r="E258" t="n">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>ENGORDADOR</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>0</v>
+      </c>
+      <c r="E259" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>FAZENDA CONQUISTA</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>0</v>
+      </c>
+      <c r="E260" t="n">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>FAZENDA MOSA</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>0</v>
+      </c>
+      <c r="E261" t="n">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>PAIVA CASTRO</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>0</v>
+      </c>
+      <c r="E262" t="n">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>PARQUE TORONTO</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>0</v>
+      </c>
+      <c r="E263" t="n">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>PEDRO BEICHT</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>0</v>
+      </c>
+      <c r="E264" t="n">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>RIO PIAGUI</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E265" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -6482,7 +6689,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/monitoramento_chuvas.xlsx
+++ b/monitoramento_chuvas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E265"/>
+  <dimension ref="A1:E274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6519,6 +6519,213 @@
       </c>
       <c r="E265" t="n">
         <v>20</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>20:57</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>ATIBAINHA</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>0</v>
+      </c>
+      <c r="E266" t="n">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>20:57</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>BIRITIBA</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>0</v>
+      </c>
+      <c r="E267" t="n">
+        <v>20.4</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>20:57</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>ENGORDADOR</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>0</v>
+      </c>
+      <c r="E268" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>20:57</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>FAZENDA CONQUISTA</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>0</v>
+      </c>
+      <c r="E269" t="n">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>20:57</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>FAZENDA MOSA</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>0</v>
+      </c>
+      <c r="E270" t="n">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>20:57</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>PAIVA CASTRO</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>0</v>
+      </c>
+      <c r="E271" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>20:57</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>PARQUE TORONTO</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>0</v>
+      </c>
+      <c r="E272" t="n">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>20:57</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>PEDRO BEICHT</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>0</v>
+      </c>
+      <c r="E273" t="n">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>19/02/2026</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>20:57</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>RIO PIAGUI</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E274" t="n">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -6689,7 +6896,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
     </row>
   </sheetData>

--- a/monitoramento_chuvas.xlsx
+++ b/monitoramento_chuvas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E274"/>
+  <dimension ref="A1:E283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6726,6 +6726,213 @@
       </c>
       <c r="E274" t="n">
         <v>19</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>02:08</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>ATIBAINHA</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>0</v>
+      </c>
+      <c r="E275" t="n">
+        <v>19.6</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>02:08</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>BIRITIBA</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>0</v>
+      </c>
+      <c r="E276" t="n">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>02:08</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>ENGORDADOR</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>0</v>
+      </c>
+      <c r="E277" t="n">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>02:08</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>FAZENDA CONQUISTA</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>0</v>
+      </c>
+      <c r="E278" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>02:09</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>FAZENDA MOSA</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>0</v>
+      </c>
+      <c r="E279" t="n">
+        <v>20.1</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>02:09</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>PAIVA CASTRO</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>0</v>
+      </c>
+      <c r="E280" t="n">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>02:09</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>PARQUE TORONTO</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>0</v>
+      </c>
+      <c r="E281" t="n">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>02:09</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>PEDRO BEICHT</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>0</v>
+      </c>
+      <c r="E282" t="n">
+        <v>17.9</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>02:09</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>RIO PIAGUI</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>0</v>
+      </c>
+      <c r="E283" t="n">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/monitoramento_chuvas.xlsx
+++ b/monitoramento_chuvas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E283"/>
+  <dimension ref="A1:E292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6933,6 +6933,213 @@
       </c>
       <c r="E283" t="n">
         <v>18</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>ATIBAINHA</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>0</v>
+      </c>
+      <c r="E284" t="n">
+        <v>17.9</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>BIRITIBA</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>0</v>
+      </c>
+      <c r="E285" t="n">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>ENGORDADOR</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>0</v>
+      </c>
+      <c r="E286" t="n">
+        <v>17.6</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>FAZENDA CONQUISTA</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>0</v>
+      </c>
+      <c r="E287" t="n">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>FAZENDA MOSA</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>0</v>
+      </c>
+      <c r="E288" t="n">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>PAIVA CASTRO</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>0</v>
+      </c>
+      <c r="E289" t="n">
+        <v>19.9</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>PARQUE TORONTO</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>0</v>
+      </c>
+      <c r="E290" t="n">
+        <v>18.1</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>PEDRO BEICHT</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>0</v>
+      </c>
+      <c r="E291" t="n">
+        <v>16.4</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>RIO PIAGUI</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>0</v>
+      </c>
+      <c r="E292" t="n">
+        <v>17.6</v>
       </c>
     </row>
   </sheetData>

--- a/monitoramento_chuvas.xlsx
+++ b/monitoramento_chuvas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E292"/>
+  <dimension ref="A1:E301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7140,6 +7140,213 @@
       </c>
       <c r="E292" t="n">
         <v>17.6</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>08:04</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>ATIBAINHA</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>0</v>
+      </c>
+      <c r="E293" t="n">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>08:04</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>BIRITIBA</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>0</v>
+      </c>
+      <c r="E294" t="n">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>08:04</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>ENGORDADOR</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>0</v>
+      </c>
+      <c r="E295" t="n">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>08:04</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>FAZENDA CONQUISTA</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>0</v>
+      </c>
+      <c r="E296" t="n">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>08:04</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>FAZENDA MOSA</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>0</v>
+      </c>
+      <c r="E297" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>08:04</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>PAIVA CASTRO</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>0</v>
+      </c>
+      <c r="E298" t="n">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>08:04</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>PARQUE TORONTO</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>0</v>
+      </c>
+      <c r="E299" t="n">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>08:04</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>PEDRO BEICHT</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>0</v>
+      </c>
+      <c r="E300" t="n">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>08:04</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>RIO PIAGUI</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>0</v>
+      </c>
+      <c r="E301" t="n">
+        <v>20.9</v>
       </c>
     </row>
   </sheetData>

--- a/monitoramento_chuvas.xlsx
+++ b/monitoramento_chuvas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E301"/>
+  <dimension ref="A1:E310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7347,6 +7347,213 @@
       </c>
       <c r="E301" t="n">
         <v>20.9</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>11:25</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>ATIBAINHA</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>0</v>
+      </c>
+      <c r="E302" t="n">
+        <v>28.1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>11:25</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>BIRITIBA</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>0</v>
+      </c>
+      <c r="E303" t="n">
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>11:25</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>ENGORDADOR</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>0</v>
+      </c>
+      <c r="E304" t="n">
+        <v>28.1</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>11:25</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>FAZENDA CONQUISTA</t>
+        </is>
+      </c>
+      <c r="D305" t="n">
+        <v>0</v>
+      </c>
+      <c r="E305" t="n">
+        <v>29.3</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>11:25</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>FAZENDA MOSA</t>
+        </is>
+      </c>
+      <c r="D306" t="n">
+        <v>0</v>
+      </c>
+      <c r="E306" t="n">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>11:25</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>PAIVA CASTRO</t>
+        </is>
+      </c>
+      <c r="D307" t="n">
+        <v>0</v>
+      </c>
+      <c r="E307" t="n">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>11:25</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>PARQUE TORONTO</t>
+        </is>
+      </c>
+      <c r="D308" t="n">
+        <v>0</v>
+      </c>
+      <c r="E308" t="n">
+        <v>27.9</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>11:26</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>PEDRO BEICHT</t>
+        </is>
+      </c>
+      <c r="D309" t="n">
+        <v>0</v>
+      </c>
+      <c r="E309" t="n">
+        <v>28.1</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>11:26</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>RIO PIAGUI</t>
+        </is>
+      </c>
+      <c r="D310" t="n">
+        <v>0</v>
+      </c>
+      <c r="E310" t="n">
+        <v>24.2</v>
       </c>
     </row>
   </sheetData>

--- a/monitoramento_chuvas.xlsx
+++ b/monitoramento_chuvas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E310"/>
+  <dimension ref="A1:E319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7554,6 +7554,213 @@
       </c>
       <c r="E310" t="n">
         <v>24.2</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>14:08</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>ATIBAINHA</t>
+        </is>
+      </c>
+      <c r="D311" t="n">
+        <v>0</v>
+      </c>
+      <c r="E311" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>14:08</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>BIRITIBA</t>
+        </is>
+      </c>
+      <c r="D312" t="n">
+        <v>0</v>
+      </c>
+      <c r="E312" t="n">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>14:08</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>ENGORDADOR</t>
+        </is>
+      </c>
+      <c r="D313" t="n">
+        <v>0</v>
+      </c>
+      <c r="E313" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>14:08</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>FAZENDA CONQUISTA</t>
+        </is>
+      </c>
+      <c r="D314" t="n">
+        <v>0</v>
+      </c>
+      <c r="E314" t="n">
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>14:08</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>FAZENDA MOSA</t>
+        </is>
+      </c>
+      <c r="D315" t="n">
+        <v>0</v>
+      </c>
+      <c r="E315" t="n">
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>14:08</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>PAIVA CASTRO</t>
+        </is>
+      </c>
+      <c r="D316" t="n">
+        <v>0</v>
+      </c>
+      <c r="E316" t="n">
+        <v>32.2</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>14:08</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>PARQUE TORONTO</t>
+        </is>
+      </c>
+      <c r="D317" t="n">
+        <v>0</v>
+      </c>
+      <c r="E317" t="n">
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>14:08</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>PEDRO BEICHT</t>
+        </is>
+      </c>
+      <c r="D318" t="n">
+        <v>0</v>
+      </c>
+      <c r="E318" t="n">
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>14:08</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>RIO PIAGUI</t>
+        </is>
+      </c>
+      <c r="D319" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E319" t="n">
+        <v>25.3</v>
       </c>
     </row>
   </sheetData>
@@ -7724,7 +7931,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
     </row>
   </sheetData>

--- a/monitoramento_chuvas.xlsx
+++ b/monitoramento_chuvas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E319"/>
+  <dimension ref="A1:E328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7761,6 +7761,213 @@
       </c>
       <c r="E319" t="n">
         <v>25.3</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>16:49</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>ATIBAINHA</t>
+        </is>
+      </c>
+      <c r="D320" t="n">
+        <v>0</v>
+      </c>
+      <c r="E320" t="n">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>16:49</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>BIRITIBA</t>
+        </is>
+      </c>
+      <c r="D321" t="n">
+        <v>0</v>
+      </c>
+      <c r="E321" t="n">
+        <v>26.7</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>16:49</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>ENGORDADOR</t>
+        </is>
+      </c>
+      <c r="D322" t="n">
+        <v>0</v>
+      </c>
+      <c r="E322" t="n">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>16:49</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>FAZENDA CONQUISTA</t>
+        </is>
+      </c>
+      <c r="D323" t="n">
+        <v>0</v>
+      </c>
+      <c r="E323" t="n">
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>16:49</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>FAZENDA MOSA</t>
+        </is>
+      </c>
+      <c r="D324" t="n">
+        <v>0</v>
+      </c>
+      <c r="E324" t="n">
+        <v>30.1</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>16:49</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>PAIVA CASTRO</t>
+        </is>
+      </c>
+      <c r="D325" t="n">
+        <v>0</v>
+      </c>
+      <c r="E325" t="n">
+        <v>32.1</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>16:49</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>PARQUE TORONTO</t>
+        </is>
+      </c>
+      <c r="D326" t="n">
+        <v>0</v>
+      </c>
+      <c r="E326" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>16:49</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>PEDRO BEICHT</t>
+        </is>
+      </c>
+      <c r="D327" t="n">
+        <v>0</v>
+      </c>
+      <c r="E327" t="n">
+        <v>28.7</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>16:49</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>RIO PIAGUI</t>
+        </is>
+      </c>
+      <c r="D328" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E328" t="n">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -7931,7 +8138,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
     </row>
   </sheetData>

--- a/monitoramento_chuvas.xlsx
+++ b/monitoramento_chuvas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E328"/>
+  <dimension ref="A1:E337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7968,6 +7968,213 @@
       </c>
       <c r="E328" t="n">
         <v>25</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>17:57</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>ATIBAINHA</t>
+        </is>
+      </c>
+      <c r="D329" t="n">
+        <v>0</v>
+      </c>
+      <c r="E329" t="n">
+        <v>29.4</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>17:57</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>BIRITIBA</t>
+        </is>
+      </c>
+      <c r="D330" t="n">
+        <v>0</v>
+      </c>
+      <c r="E330" t="n">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>17:57</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>ENGORDADOR</t>
+        </is>
+      </c>
+      <c r="D331" t="n">
+        <v>0</v>
+      </c>
+      <c r="E331" t="n">
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>17:57</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>FAZENDA CONQUISTA</t>
+        </is>
+      </c>
+      <c r="D332" t="n">
+        <v>0</v>
+      </c>
+      <c r="E332" t="n">
+        <v>29.2</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>17:57</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>FAZENDA MOSA</t>
+        </is>
+      </c>
+      <c r="D333" t="n">
+        <v>0</v>
+      </c>
+      <c r="E333" t="n">
+        <v>29.2</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>17:58</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>PAIVA CASTRO</t>
+        </is>
+      </c>
+      <c r="D334" t="n">
+        <v>0</v>
+      </c>
+      <c r="E334" t="n">
+        <v>28.4</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>17:58</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>PARQUE TORONTO</t>
+        </is>
+      </c>
+      <c r="D335" t="n">
+        <v>0</v>
+      </c>
+      <c r="E335" t="n">
+        <v>28.9</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>17:58</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>PEDRO BEICHT</t>
+        </is>
+      </c>
+      <c r="D336" t="n">
+        <v>0</v>
+      </c>
+      <c r="E336" t="n">
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>17:58</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>RIO PIAGUI</t>
+        </is>
+      </c>
+      <c r="D337" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E337" t="n">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -8138,7 +8345,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/monitoramento_chuvas.xlsx
+++ b/monitoramento_chuvas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E337"/>
+  <dimension ref="A1:E346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8175,6 +8175,213 @@
       </c>
       <c r="E337" t="n">
         <v>24</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>18:52</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>ATIBAINHA</t>
+        </is>
+      </c>
+      <c r="D338" t="n">
+        <v>0</v>
+      </c>
+      <c r="E338" t="n">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>18:52</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>BIRITIBA</t>
+        </is>
+      </c>
+      <c r="D339" t="n">
+        <v>0</v>
+      </c>
+      <c r="E339" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>18:52</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>ENGORDADOR</t>
+        </is>
+      </c>
+      <c r="D340" t="n">
+        <v>0</v>
+      </c>
+      <c r="E340" t="n">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>18:52</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>FAZENDA CONQUISTA</t>
+        </is>
+      </c>
+      <c r="D341" t="n">
+        <v>0</v>
+      </c>
+      <c r="E341" t="n">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>18:52</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>FAZENDA MOSA</t>
+        </is>
+      </c>
+      <c r="D342" t="n">
+        <v>0</v>
+      </c>
+      <c r="E342" t="n">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>18:52</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>PAIVA CASTRO</t>
+        </is>
+      </c>
+      <c r="D343" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E343" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>18:52</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>PARQUE TORONTO</t>
+        </is>
+      </c>
+      <c r="D344" t="n">
+        <v>0</v>
+      </c>
+      <c r="E344" t="n">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>18:52</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>PEDRO BEICHT</t>
+        </is>
+      </c>
+      <c r="D345" t="n">
+        <v>0</v>
+      </c>
+      <c r="E345" t="n">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>18:52</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>RIO PIAGUI</t>
+        </is>
+      </c>
+      <c r="D346" t="n">
+        <v>0</v>
+      </c>
+      <c r="E346" t="n">
+        <v>22.8</v>
       </c>
     </row>
   </sheetData>
@@ -8300,7 +8507,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="8">

--- a/monitoramento_chuvas.xlsx
+++ b/monitoramento_chuvas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E346"/>
+  <dimension ref="A1:E355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8382,6 +8382,213 @@
       </c>
       <c r="E346" t="n">
         <v>22.8</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>ATIBAINHA</t>
+        </is>
+      </c>
+      <c r="D347" t="n">
+        <v>0</v>
+      </c>
+      <c r="E347" t="n">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>BIRITIBA</t>
+        </is>
+      </c>
+      <c r="D348" t="n">
+        <v>0</v>
+      </c>
+      <c r="E348" t="n">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>20:01</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>ENGORDADOR</t>
+        </is>
+      </c>
+      <c r="D349" t="n">
+        <v>0</v>
+      </c>
+      <c r="E349" t="n">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>20:01</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>FAZENDA CONQUISTA</t>
+        </is>
+      </c>
+      <c r="D350" t="n">
+        <v>0</v>
+      </c>
+      <c r="E350" t="n">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>20:01</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>FAZENDA MOSA</t>
+        </is>
+      </c>
+      <c r="D351" t="n">
+        <v>0</v>
+      </c>
+      <c r="E351" t="n">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>20:01</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>PAIVA CASTRO</t>
+        </is>
+      </c>
+      <c r="D352" t="n">
+        <v>0</v>
+      </c>
+      <c r="E352" t="n">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>20:01</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>PARQUE TORONTO</t>
+        </is>
+      </c>
+      <c r="D353" t="n">
+        <v>0</v>
+      </c>
+      <c r="E353" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>20:01</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>PEDRO BEICHT</t>
+        </is>
+      </c>
+      <c r="D354" t="n">
+        <v>0</v>
+      </c>
+      <c r="E354" t="n">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>20:01</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>RIO PIAGUI</t>
+        </is>
+      </c>
+      <c r="D355" t="n">
+        <v>0</v>
+      </c>
+      <c r="E355" t="n">
+        <v>20.6</v>
       </c>
     </row>
   </sheetData>

--- a/monitoramento_chuvas.xlsx
+++ b/monitoramento_chuvas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E355"/>
+  <dimension ref="A1:E364"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8589,6 +8589,213 @@
       </c>
       <c r="E355" t="n">
         <v>20.6</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>01:53</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>ATIBAINHA</t>
+        </is>
+      </c>
+      <c r="D356" t="n">
+        <v>0</v>
+      </c>
+      <c r="E356" t="n">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>01:53</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>BIRITIBA</t>
+        </is>
+      </c>
+      <c r="D357" t="n">
+        <v>0</v>
+      </c>
+      <c r="E357" t="n">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>01:53</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>ENGORDADOR</t>
+        </is>
+      </c>
+      <c r="D358" t="n">
+        <v>0</v>
+      </c>
+      <c r="E358" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>01:53</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>FAZENDA CONQUISTA</t>
+        </is>
+      </c>
+      <c r="D359" t="n">
+        <v>0</v>
+      </c>
+      <c r="E359" t="n">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>01:53</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>FAZENDA MOSA</t>
+        </is>
+      </c>
+      <c r="D360" t="n">
+        <v>0</v>
+      </c>
+      <c r="E360" t="n">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>01:53</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>PAIVA CASTRO</t>
+        </is>
+      </c>
+      <c r="D361" t="n">
+        <v>0</v>
+      </c>
+      <c r="E361" t="n">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>01:53</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>PARQUE TORONTO</t>
+        </is>
+      </c>
+      <c r="D362" t="n">
+        <v>0</v>
+      </c>
+      <c r="E362" t="n">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>01:53</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>PEDRO BEICHT</t>
+        </is>
+      </c>
+      <c r="D363" t="n">
+        <v>0</v>
+      </c>
+      <c r="E363" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>01:53</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>RIO PIAGUI</t>
+        </is>
+      </c>
+      <c r="D364" t="n">
+        <v>0</v>
+      </c>
+      <c r="E364" t="n">
+        <v>18.3</v>
       </c>
     </row>
   </sheetData>

--- a/monitoramento_chuvas.xlsx
+++ b/monitoramento_chuvas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E364"/>
+  <dimension ref="A1:E373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8796,6 +8796,213 @@
       </c>
       <c r="E364" t="n">
         <v>18.3</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>04:07</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>ATIBAINHA</t>
+        </is>
+      </c>
+      <c r="D365" t="n">
+        <v>0</v>
+      </c>
+      <c r="E365" t="n">
+        <v>20.1</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>04:07</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>BIRITIBA</t>
+        </is>
+      </c>
+      <c r="D366" t="n">
+        <v>0</v>
+      </c>
+      <c r="E366" t="n">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>04:07</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>ENGORDADOR</t>
+        </is>
+      </c>
+      <c r="D367" t="n">
+        <v>0</v>
+      </c>
+      <c r="E367" t="n">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>04:07</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>FAZENDA CONQUISTA</t>
+        </is>
+      </c>
+      <c r="D368" t="n">
+        <v>0</v>
+      </c>
+      <c r="E368" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>04:07</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>FAZENDA MOSA</t>
+        </is>
+      </c>
+      <c r="D369" t="n">
+        <v>0</v>
+      </c>
+      <c r="E369" t="n">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>04:08</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>PAIVA CASTRO</t>
+        </is>
+      </c>
+      <c r="D370" t="n">
+        <v>0</v>
+      </c>
+      <c r="E370" t="n">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>04:08</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>PARQUE TORONTO</t>
+        </is>
+      </c>
+      <c r="D371" t="n">
+        <v>0</v>
+      </c>
+      <c r="E371" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>04:08</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>PEDRO BEICHT</t>
+        </is>
+      </c>
+      <c r="D372" t="n">
+        <v>0</v>
+      </c>
+      <c r="E372" t="n">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>04:08</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>RIO PIAGUI</t>
+        </is>
+      </c>
+      <c r="D373" t="n">
+        <v>0</v>
+      </c>
+      <c r="E373" t="n">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/monitoramento_chuvas.xlsx
+++ b/monitoramento_chuvas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E373"/>
+  <dimension ref="A1:E382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9003,6 +9003,213 @@
       </c>
       <c r="E373" t="n">
         <v>18</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>06:01</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>ATIBAINHA</t>
+        </is>
+      </c>
+      <c r="D374" t="n">
+        <v>0</v>
+      </c>
+      <c r="E374" t="n">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>06:01</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>BIRITIBA</t>
+        </is>
+      </c>
+      <c r="D375" t="n">
+        <v>0</v>
+      </c>
+      <c r="E375" t="n">
+        <v>19.1</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>06:01</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>ENGORDADOR</t>
+        </is>
+      </c>
+      <c r="D376" t="n">
+        <v>0</v>
+      </c>
+      <c r="E376" t="n">
+        <v>19.6</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>06:01</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>FAZENDA CONQUISTA</t>
+        </is>
+      </c>
+      <c r="D377" t="n">
+        <v>0</v>
+      </c>
+      <c r="E377" t="n">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>06:01</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>FAZENDA MOSA</t>
+        </is>
+      </c>
+      <c r="D378" t="n">
+        <v>0</v>
+      </c>
+      <c r="E378" t="n">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>06:01</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>PAIVA CASTRO</t>
+        </is>
+      </c>
+      <c r="D379" t="n">
+        <v>0</v>
+      </c>
+      <c r="E379" t="n">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>06:01</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>PARQUE TORONTO</t>
+        </is>
+      </c>
+      <c r="D380" t="n">
+        <v>0</v>
+      </c>
+      <c r="E380" t="n">
+        <v>20.4</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>06:01</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>PEDRO BEICHT</t>
+        </is>
+      </c>
+      <c r="D381" t="n">
+        <v>0</v>
+      </c>
+      <c r="E381" t="n">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>06:01</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>RIO PIAGUI</t>
+        </is>
+      </c>
+      <c r="D382" t="n">
+        <v>0</v>
+      </c>
+      <c r="E382" t="n">
+        <v>17.9</v>
       </c>
     </row>
   </sheetData>

--- a/monitoramento_chuvas.xlsx
+++ b/monitoramento_chuvas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E382"/>
+  <dimension ref="A1:E391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9210,6 +9210,213 @@
       </c>
       <c r="E382" t="n">
         <v>17.9</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>07:55</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>ATIBAINHA</t>
+        </is>
+      </c>
+      <c r="D383" t="n">
+        <v>0</v>
+      </c>
+      <c r="E383" t="n">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>07:55</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>BIRITIBA</t>
+        </is>
+      </c>
+      <c r="D384" t="n">
+        <v>0</v>
+      </c>
+      <c r="E384" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>07:55</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>ENGORDADOR</t>
+        </is>
+      </c>
+      <c r="D385" t="n">
+        <v>0</v>
+      </c>
+      <c r="E385" t="n">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>07:56</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>FAZENDA CONQUISTA</t>
+        </is>
+      </c>
+      <c r="D386" t="n">
+        <v>0</v>
+      </c>
+      <c r="E386" t="n">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>07:56</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>FAZENDA MOSA</t>
+        </is>
+      </c>
+      <c r="D387" t="n">
+        <v>0</v>
+      </c>
+      <c r="E387" t="n">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>07:56</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>PAIVA CASTRO</t>
+        </is>
+      </c>
+      <c r="D388" t="n">
+        <v>0</v>
+      </c>
+      <c r="E388" t="n">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>07:56</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>PARQUE TORONTO</t>
+        </is>
+      </c>
+      <c r="D389" t="n">
+        <v>0</v>
+      </c>
+      <c r="E389" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>07:56</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>PEDRO BEICHT</t>
+        </is>
+      </c>
+      <c r="D390" t="n">
+        <v>0</v>
+      </c>
+      <c r="E390" t="n">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>07:56</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>RIO PIAGUI</t>
+        </is>
+      </c>
+      <c r="D391" t="n">
+        <v>0</v>
+      </c>
+      <c r="E391" t="n">
+        <v>20.7</v>
       </c>
     </row>
   </sheetData>

--- a/monitoramento_chuvas.xlsx
+++ b/monitoramento_chuvas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E391"/>
+  <dimension ref="A1:E400"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9417,6 +9417,213 @@
       </c>
       <c r="E391" t="n">
         <v>20.7</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>08:42</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>ATIBAINHA</t>
+        </is>
+      </c>
+      <c r="D392" t="n">
+        <v>0</v>
+      </c>
+      <c r="E392" t="n">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>08:42</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>BIRITIBA</t>
+        </is>
+      </c>
+      <c r="D393" t="n">
+        <v>0</v>
+      </c>
+      <c r="E393" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>08:42</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>ENGORDADOR</t>
+        </is>
+      </c>
+      <c r="D394" t="n">
+        <v>0</v>
+      </c>
+      <c r="E394" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>08:42</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>FAZENDA CONQUISTA</t>
+        </is>
+      </c>
+      <c r="D395" t="n">
+        <v>0</v>
+      </c>
+      <c r="E395" t="n">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>08:43</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>FAZENDA MOSA</t>
+        </is>
+      </c>
+      <c r="D396" t="n">
+        <v>0</v>
+      </c>
+      <c r="E396" t="n">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>08:43</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>PAIVA CASTRO</t>
+        </is>
+      </c>
+      <c r="D397" t="n">
+        <v>0</v>
+      </c>
+      <c r="E397" t="n">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>08:43</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>PARQUE TORONTO</t>
+        </is>
+      </c>
+      <c r="D398" t="n">
+        <v>0</v>
+      </c>
+      <c r="E398" t="n">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>08:43</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>PEDRO BEICHT</t>
+        </is>
+      </c>
+      <c r="D399" t="n">
+        <v>0</v>
+      </c>
+      <c r="E399" t="n">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>08:43</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>RIO PIAGUI</t>
+        </is>
+      </c>
+      <c r="D400" t="n">
+        <v>0</v>
+      </c>
+      <c r="E400" t="n">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/monitoramento_chuvas.xlsx
+++ b/monitoramento_chuvas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E400"/>
+  <dimension ref="A1:E409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9624,6 +9624,213 @@
       </c>
       <c r="E400" t="n">
         <v>22</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>10:54</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>ATIBAINHA</t>
+        </is>
+      </c>
+      <c r="D401" t="n">
+        <v>0</v>
+      </c>
+      <c r="E401" t="n">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>10:54</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>BIRITIBA</t>
+        </is>
+      </c>
+      <c r="D402" t="n">
+        <v>0</v>
+      </c>
+      <c r="E402" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>10:54</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>ENGORDADOR</t>
+        </is>
+      </c>
+      <c r="D403" t="n">
+        <v>0</v>
+      </c>
+      <c r="E403" t="n">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>10:54</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>FAZENDA CONQUISTA</t>
+        </is>
+      </c>
+      <c r="D404" t="n">
+        <v>0</v>
+      </c>
+      <c r="E404" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>10:54</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>FAZENDA MOSA</t>
+        </is>
+      </c>
+      <c r="D405" t="n">
+        <v>0</v>
+      </c>
+      <c r="E405" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>10:54</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>PAIVA CASTRO</t>
+        </is>
+      </c>
+      <c r="D406" t="n">
+        <v>0</v>
+      </c>
+      <c r="E406" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>10:54</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>PARQUE TORONTO</t>
+        </is>
+      </c>
+      <c r="D407" t="n">
+        <v>0</v>
+      </c>
+      <c r="E407" t="n">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>10:54</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>PEDRO BEICHT</t>
+        </is>
+      </c>
+      <c r="D408" t="n">
+        <v>0</v>
+      </c>
+      <c r="E408" t="n">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>10:55</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>RIO PIAGUI</t>
+        </is>
+      </c>
+      <c r="D409" t="n">
+        <v>0</v>
+      </c>
+      <c r="E409" t="n">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/monitoramento_chuvas.xlsx
+++ b/monitoramento_chuvas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E409"/>
+  <dimension ref="A1:E418"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9831,6 +9831,213 @@
       </c>
       <c r="E409" t="n">
         <v>24</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>11:56</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>ATIBAINHA</t>
+        </is>
+      </c>
+      <c r="D410" t="n">
+        <v>0</v>
+      </c>
+      <c r="E410" t="n">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>11:56</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>BIRITIBA</t>
+        </is>
+      </c>
+      <c r="D411" t="n">
+        <v>0</v>
+      </c>
+      <c r="E411" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>11:56</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>ENGORDADOR</t>
+        </is>
+      </c>
+      <c r="D412" t="n">
+        <v>0</v>
+      </c>
+      <c r="E412" t="n">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>11:56</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>FAZENDA CONQUISTA</t>
+        </is>
+      </c>
+      <c r="D413" t="n">
+        <v>0</v>
+      </c>
+      <c r="E413" t="n">
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>11:56</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>FAZENDA MOSA</t>
+        </is>
+      </c>
+      <c r="D414" t="n">
+        <v>0</v>
+      </c>
+      <c r="E414" t="n">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>11:56</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>PAIVA CASTRO</t>
+        </is>
+      </c>
+      <c r="D415" t="n">
+        <v>0</v>
+      </c>
+      <c r="E415" t="n">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>11:56</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>PARQUE TORONTO</t>
+        </is>
+      </c>
+      <c r="D416" t="n">
+        <v>0</v>
+      </c>
+      <c r="E416" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>11:56</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>PEDRO BEICHT</t>
+        </is>
+      </c>
+      <c r="D417" t="n">
+        <v>0</v>
+      </c>
+      <c r="E417" t="n">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>11:56</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>RIO PIAGUI</t>
+        </is>
+      </c>
+      <c r="D418" t="n">
+        <v>0</v>
+      </c>
+      <c r="E418" t="n">
+        <v>24.4</v>
       </c>
     </row>
   </sheetData>

--- a/monitoramento_chuvas.xlsx
+++ b/monitoramento_chuvas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E418"/>
+  <dimension ref="A1:E427"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10038,6 +10038,213 @@
       </c>
       <c r="E418" t="n">
         <v>24.4</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>ATIBAINHA</t>
+        </is>
+      </c>
+      <c r="D419" t="n">
+        <v>0</v>
+      </c>
+      <c r="E419" t="n">
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>BIRITIBA</t>
+        </is>
+      </c>
+      <c r="D420" t="n">
+        <v>0</v>
+      </c>
+      <c r="E420" t="n">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>ENGORDADOR</t>
+        </is>
+      </c>
+      <c r="D421" t="n">
+        <v>0</v>
+      </c>
+      <c r="E421" t="n">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>FAZENDA CONQUISTA</t>
+        </is>
+      </c>
+      <c r="D422" t="n">
+        <v>0</v>
+      </c>
+      <c r="E422" t="n">
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>FAZENDA MOSA</t>
+        </is>
+      </c>
+      <c r="D423" t="n">
+        <v>0</v>
+      </c>
+      <c r="E423" t="n">
+        <v>28.3</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>PAIVA CASTRO</t>
+        </is>
+      </c>
+      <c r="D424" t="n">
+        <v>0</v>
+      </c>
+      <c r="E424" t="n">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>PARQUE TORONTO</t>
+        </is>
+      </c>
+      <c r="D425" t="n">
+        <v>0</v>
+      </c>
+      <c r="E425" t="n">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>PEDRO BEICHT</t>
+        </is>
+      </c>
+      <c r="D426" t="n">
+        <v>0</v>
+      </c>
+      <c r="E426" t="n">
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>RIO PIAGUI</t>
+        </is>
+      </c>
+      <c r="D427" t="n">
+        <v>0</v>
+      </c>
+      <c r="E427" t="n">
+        <v>24.5</v>
       </c>
     </row>
   </sheetData>

--- a/monitoramento_chuvas.xlsx
+++ b/monitoramento_chuvas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E427"/>
+  <dimension ref="A1:E436"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10245,6 +10245,213 @@
       </c>
       <c r="E427" t="n">
         <v>24.5</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>13:59</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>ATIBAINHA</t>
+        </is>
+      </c>
+      <c r="D428" t="n">
+        <v>0</v>
+      </c>
+      <c r="E428" t="n">
+        <v>28.7</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>13:59</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>BIRITIBA</t>
+        </is>
+      </c>
+      <c r="D429" t="n">
+        <v>0</v>
+      </c>
+      <c r="E429" t="n">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>13:59</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>ENGORDADOR</t>
+        </is>
+      </c>
+      <c r="D430" t="n">
+        <v>0</v>
+      </c>
+      <c r="E430" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>13:59</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>FAZENDA CONQUISTA</t>
+        </is>
+      </c>
+      <c r="D431" t="n">
+        <v>0</v>
+      </c>
+      <c r="E431" t="n">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>13:59</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>FAZENDA MOSA</t>
+        </is>
+      </c>
+      <c r="D432" t="n">
+        <v>0</v>
+      </c>
+      <c r="E432" t="n">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>13:59</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>PAIVA CASTRO</t>
+        </is>
+      </c>
+      <c r="D433" t="n">
+        <v>0</v>
+      </c>
+      <c r="E433" t="n">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>13:59</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>PARQUE TORONTO</t>
+        </is>
+      </c>
+      <c r="D434" t="n">
+        <v>0</v>
+      </c>
+      <c r="E434" t="n">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>13:59</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>PEDRO BEICHT</t>
+        </is>
+      </c>
+      <c r="D435" t="n">
+        <v>0</v>
+      </c>
+      <c r="E435" t="n">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>13:59</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>RIO PIAGUI</t>
+        </is>
+      </c>
+      <c r="D436" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E436" t="n">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -10415,7 +10622,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>9.699999999999999</v>
+        <v>10.4</v>
       </c>
     </row>
   </sheetData>

--- a/monitoramento_chuvas.xlsx
+++ b/monitoramento_chuvas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E436"/>
+  <dimension ref="A1:E445"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10452,6 +10452,213 @@
       </c>
       <c r="E436" t="n">
         <v>24</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>14:54</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>ATIBAINHA</t>
+        </is>
+      </c>
+      <c r="D437" t="n">
+        <v>0</v>
+      </c>
+      <c r="E437" t="n">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>14:54</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>BIRITIBA</t>
+        </is>
+      </c>
+      <c r="D438" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E438" t="n">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>14:54</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>ENGORDADOR</t>
+        </is>
+      </c>
+      <c r="D439" t="n">
+        <v>0</v>
+      </c>
+      <c r="E439" t="n">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>14:54</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>FAZENDA CONQUISTA</t>
+        </is>
+      </c>
+      <c r="D440" t="n">
+        <v>0</v>
+      </c>
+      <c r="E440" t="n">
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>14:54</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>FAZENDA MOSA</t>
+        </is>
+      </c>
+      <c r="D441" t="n">
+        <v>0</v>
+      </c>
+      <c r="E441" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>14:54</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>PAIVA CASTRO</t>
+        </is>
+      </c>
+      <c r="D442" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E442" t="n">
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>14:54</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>PARQUE TORONTO</t>
+        </is>
+      </c>
+      <c r="D443" t="n">
+        <v>0</v>
+      </c>
+      <c r="E443" t="n">
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>14:54</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>PEDRO BEICHT</t>
+        </is>
+      </c>
+      <c r="D444" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E444" t="n">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>14:54</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>RIO PIAGUI</t>
+        </is>
+      </c>
+      <c r="D445" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E445" t="n">
+        <v>23.9</v>
       </c>
     </row>
   </sheetData>
@@ -10517,7 +10724,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="4">
@@ -10577,7 +10784,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="8">
@@ -10607,7 +10814,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="10">
@@ -10622,7 +10829,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>10.4</v>
+        <v>11.7</v>
       </c>
     </row>
   </sheetData>

--- a/monitoramento_chuvas.xlsx
+++ b/monitoramento_chuvas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E445"/>
+  <dimension ref="A1:E454"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10659,6 +10659,213 @@
       </c>
       <c r="E445" t="n">
         <v>23.9</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>16:04</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>ATIBAINHA</t>
+        </is>
+      </c>
+      <c r="D446" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E446" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>16:04</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>BIRITIBA</t>
+        </is>
+      </c>
+      <c r="D447" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E447" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>16:04</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>ENGORDADOR</t>
+        </is>
+      </c>
+      <c r="D448" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E448" t="n">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>16:04</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>FAZENDA CONQUISTA</t>
+        </is>
+      </c>
+      <c r="D449" t="n">
+        <v>0</v>
+      </c>
+      <c r="E449" t="n">
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>16:04</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>FAZENDA MOSA</t>
+        </is>
+      </c>
+      <c r="D450" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E450" t="n">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>16:04</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>PAIVA CASTRO</t>
+        </is>
+      </c>
+      <c r="D451" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E451" t="n">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>16:05</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>PARQUE TORONTO</t>
+        </is>
+      </c>
+      <c r="D452" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E452" t="n">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>16:05</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>PEDRO BEICHT</t>
+        </is>
+      </c>
+      <c r="D453" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E453" t="n">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>16:05</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>RIO PIAGUI</t>
+        </is>
+      </c>
+      <c r="D454" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E454" t="n">
+        <v>23.7</v>
       </c>
     </row>
   </sheetData>
@@ -10709,7 +10916,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -10724,7 +10931,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="4">
@@ -10739,7 +10946,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="5">
@@ -10769,7 +10976,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7">
@@ -10784,7 +10991,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="8">
@@ -10799,7 +11006,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -10814,7 +11021,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="10">
@@ -10829,7 +11036,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
     </row>
   </sheetData>

--- a/monitoramento_chuvas.xlsx
+++ b/monitoramento_chuvas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E454"/>
+  <dimension ref="A1:E463"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10866,6 +10866,213 @@
       </c>
       <c r="E454" t="n">
         <v>23.7</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>17:51</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>ATIBAINHA</t>
+        </is>
+      </c>
+      <c r="D455" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E455" t="n">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>17:51</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>BIRITIBA</t>
+        </is>
+      </c>
+      <c r="D456" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E456" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>17:51</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>ENGORDADOR</t>
+        </is>
+      </c>
+      <c r="D457" t="n">
+        <v>0</v>
+      </c>
+      <c r="E457" t="n">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>17:51</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>FAZENDA CONQUISTA</t>
+        </is>
+      </c>
+      <c r="D458" t="n">
+        <v>0</v>
+      </c>
+      <c r="E458" t="n">
+        <v>29.2</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>17:51</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>FAZENDA MOSA</t>
+        </is>
+      </c>
+      <c r="D459" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E459" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>17:51</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>PAIVA CASTRO</t>
+        </is>
+      </c>
+      <c r="D460" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E460" t="n">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>17:51</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>PARQUE TORONTO</t>
+        </is>
+      </c>
+      <c r="D461" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E461" t="n">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>17:51</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>PEDRO BEICHT</t>
+        </is>
+      </c>
+      <c r="D462" t="n">
+        <v>0</v>
+      </c>
+      <c r="E462" t="n">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>17:51</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>RIO PIAGUI</t>
+        </is>
+      </c>
+      <c r="D463" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E463" t="n">
+        <v>20.5</v>
       </c>
     </row>
   </sheetData>
@@ -10916,7 +11123,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="3">
@@ -10931,7 +11138,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="4">
@@ -10976,7 +11183,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="7">
@@ -10991,7 +11198,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -11006,7 +11213,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="9">
@@ -11036,7 +11243,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
     </row>
   </sheetData>

--- a/monitoramento_chuvas.xlsx
+++ b/monitoramento_chuvas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E463"/>
+  <dimension ref="A1:E472"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11073,6 +11073,213 @@
       </c>
       <c r="E463" t="n">
         <v>20.5</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>18:46</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>ATIBAINHA</t>
+        </is>
+      </c>
+      <c r="D464" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E464" t="n">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>18:46</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>BIRITIBA</t>
+        </is>
+      </c>
+      <c r="D465" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E465" t="n">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>18:46</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>ENGORDADOR</t>
+        </is>
+      </c>
+      <c r="D466" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E466" t="n">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>18:46</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>FAZENDA CONQUISTA</t>
+        </is>
+      </c>
+      <c r="D467" t="n">
+        <v>0</v>
+      </c>
+      <c r="E467" t="n">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>18:46</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>FAZENDA MOSA</t>
+        </is>
+      </c>
+      <c r="D468" t="n">
+        <v>0</v>
+      </c>
+      <c r="E468" t="n">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>18:46</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>PAIVA CASTRO</t>
+        </is>
+      </c>
+      <c r="D469" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E469" t="n">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>18:46</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>PARQUE TORONTO</t>
+        </is>
+      </c>
+      <c r="D470" t="n">
+        <v>0</v>
+      </c>
+      <c r="E470" t="n">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>18:46</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>PEDRO BEICHT</t>
+        </is>
+      </c>
+      <c r="D471" t="n">
+        <v>0</v>
+      </c>
+      <c r="E471" t="n">
+        <v>20.4</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>18:46</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>RIO PIAGUI</t>
+        </is>
+      </c>
+      <c r="D472" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E472" t="n">
+        <v>20.1</v>
       </c>
     </row>
   </sheetData>
@@ -11123,7 +11330,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="3">
@@ -11138,7 +11345,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="4">
@@ -11153,7 +11360,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="5">
@@ -11198,7 +11405,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="8">
@@ -11243,7 +11450,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>11.9</v>
+        <v>13.5</v>
       </c>
     </row>
   </sheetData>

--- a/monitoramento_chuvas.xlsx
+++ b/monitoramento_chuvas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E472"/>
+  <dimension ref="A1:E481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11280,6 +11280,213 @@
       </c>
       <c r="E472" t="n">
         <v>20.1</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>19:54</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>ATIBAINHA</t>
+        </is>
+      </c>
+      <c r="D473" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E473" t="n">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>19:54</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>BIRITIBA</t>
+        </is>
+      </c>
+      <c r="D474" t="n">
+        <v>0</v>
+      </c>
+      <c r="E474" t="n">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>19:54</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>ENGORDADOR</t>
+        </is>
+      </c>
+      <c r="D475" t="n">
+        <v>0</v>
+      </c>
+      <c r="E475" t="n">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>19:54</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>FAZENDA CONQUISTA</t>
+        </is>
+      </c>
+      <c r="D476" t="n">
+        <v>0</v>
+      </c>
+      <c r="E476" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>19:54</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>FAZENDA MOSA</t>
+        </is>
+      </c>
+      <c r="D477" t="n">
+        <v>0</v>
+      </c>
+      <c r="E477" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>19:54</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>PAIVA CASTRO</t>
+        </is>
+      </c>
+      <c r="D478" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E478" t="n">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>19:54</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>PARQUE TORONTO</t>
+        </is>
+      </c>
+      <c r="D479" t="n">
+        <v>0</v>
+      </c>
+      <c r="E479" t="n">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>19:54</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>PEDRO BEICHT</t>
+        </is>
+      </c>
+      <c r="D480" t="n">
+        <v>0</v>
+      </c>
+      <c r="E480" t="n">
+        <v>19.9</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>19:54</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>RIO PIAGUI</t>
+        </is>
+      </c>
+      <c r="D481" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E481" t="n">
+        <v>19.4</v>
       </c>
     </row>
   </sheetData>
@@ -11330,7 +11537,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="3">
@@ -11405,7 +11612,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="8">
@@ -11450,7 +11657,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>13.5</v>
+        <v>14.8</v>
       </c>
     </row>
   </sheetData>

--- a/monitoramento_chuvas.xlsx
+++ b/monitoramento_chuvas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E481"/>
+  <dimension ref="A1:E490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11487,6 +11487,213 @@
       </c>
       <c r="E481" t="n">
         <v>19.4</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>20:47</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>ATIBAINHA</t>
+        </is>
+      </c>
+      <c r="D482" t="n">
+        <v>0</v>
+      </c>
+      <c r="E482" t="n">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>20:47</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>BIRITIBA</t>
+        </is>
+      </c>
+      <c r="D483" t="n">
+        <v>0</v>
+      </c>
+      <c r="E483" t="n">
+        <v>20.4</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>20:47</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>ENGORDADOR</t>
+        </is>
+      </c>
+      <c r="D484" t="n">
+        <v>0</v>
+      </c>
+      <c r="E484" t="n">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>20:47</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>FAZENDA CONQUISTA</t>
+        </is>
+      </c>
+      <c r="D485" t="n">
+        <v>0</v>
+      </c>
+      <c r="E485" t="n">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>20:47</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>FAZENDA MOSA</t>
+        </is>
+      </c>
+      <c r="D486" t="n">
+        <v>0</v>
+      </c>
+      <c r="E486" t="n">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>20:47</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>PAIVA CASTRO</t>
+        </is>
+      </c>
+      <c r="D487" t="n">
+        <v>0</v>
+      </c>
+      <c r="E487" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>20:47</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>PARQUE TORONTO</t>
+        </is>
+      </c>
+      <c r="D488" t="n">
+        <v>0</v>
+      </c>
+      <c r="E488" t="n">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>20:48</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>PEDRO BEICHT</t>
+        </is>
+      </c>
+      <c r="D489" t="n">
+        <v>0</v>
+      </c>
+      <c r="E489" t="n">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>21/02/2026</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>20:48</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>RIO PIAGUI</t>
+        </is>
+      </c>
+      <c r="D490" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E490" t="n">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -11657,7 +11864,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>14.8</v>
+        <v>15.6</v>
       </c>
     </row>
   </sheetData>

--- a/monitoramento_chuvas.xlsx
+++ b/monitoramento_chuvas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E490"/>
+  <dimension ref="A1:E499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11694,6 +11694,213 @@
       </c>
       <c r="E490" t="n">
         <v>19</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>22/02/2026</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>02:12</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>ATIBAINHA</t>
+        </is>
+      </c>
+      <c r="D491" t="n">
+        <v>0</v>
+      </c>
+      <c r="E491" t="n">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>22/02/2026</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>02:12</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>BIRITIBA</t>
+        </is>
+      </c>
+      <c r="D492" t="n">
+        <v>0</v>
+      </c>
+      <c r="E492" t="n">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>22/02/2026</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>02:12</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>ENGORDADOR</t>
+        </is>
+      </c>
+      <c r="D493" t="n">
+        <v>0</v>
+      </c>
+      <c r="E493" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>22/02/2026</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>02:12</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>FAZENDA CONQUISTA</t>
+        </is>
+      </c>
+      <c r="D494" t="n">
+        <v>0</v>
+      </c>
+      <c r="E494" t="n">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>22/02/2026</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>02:12</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>FAZENDA MOSA</t>
+        </is>
+      </c>
+      <c r="D495" t="n">
+        <v>0</v>
+      </c>
+      <c r="E495" t="n">
+        <v>19.6</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>22/02/2026</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>02:12</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>PAIVA CASTRO</t>
+        </is>
+      </c>
+      <c r="D496" t="n">
+        <v>0</v>
+      </c>
+      <c r="E496" t="n">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>22/02/2026</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>02:12</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>PARQUE TORONTO</t>
+        </is>
+      </c>
+      <c r="D497" t="n">
+        <v>0</v>
+      </c>
+      <c r="E497" t="n">
+        <v>19.9</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>22/02/2026</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>02:12</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>PEDRO BEICHT</t>
+        </is>
+      </c>
+      <c r="D498" t="n">
+        <v>0</v>
+      </c>
+      <c r="E498" t="n">
+        <v>19.1</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>22/02/2026</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>02:12</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>RIO PIAGUI</t>
+        </is>
+      </c>
+      <c r="D499" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E499" t="n">
+        <v>17.6</v>
       </c>
     </row>
   </sheetData>
@@ -11864,7 +12071,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
     </row>
   </sheetData>

--- a/monitoramento_chuvas.xlsx
+++ b/monitoramento_chuvas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E499"/>
+  <dimension ref="A1:E508"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11901,6 +11901,213 @@
       </c>
       <c r="E499" t="n">
         <v>17.6</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>22/02/2026</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>04:52</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>ATIBAINHA</t>
+        </is>
+      </c>
+      <c r="D500" t="n">
+        <v>0</v>
+      </c>
+      <c r="E500" t="n">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>22/02/2026</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>04:52</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>BIRITIBA</t>
+        </is>
+      </c>
+      <c r="D501" t="n">
+        <v>0</v>
+      </c>
+      <c r="E501" t="n">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>22/02/2026</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>04:52</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>ENGORDADOR</t>
+        </is>
+      </c>
+      <c r="D502" t="n">
+        <v>0</v>
+      </c>
+      <c r="E502" t="n">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>22/02/2026</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>04:52</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>FAZENDA CONQUISTA</t>
+        </is>
+      </c>
+      <c r="D503" t="n">
+        <v>0</v>
+      </c>
+      <c r="E503" t="n">
+        <v>19.9</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>22/02/2026</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>04:52</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>FAZENDA MOSA</t>
+        </is>
+      </c>
+      <c r="D504" t="n">
+        <v>0</v>
+      </c>
+      <c r="E504" t="n">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>22/02/2026</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>04:53</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>PAIVA CASTRO</t>
+        </is>
+      </c>
+      <c r="D505" t="n">
+        <v>0</v>
+      </c>
+      <c r="E505" t="n">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>22/02/2026</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>04:53</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>PARQUE TORONTO</t>
+        </is>
+      </c>
+      <c r="D506" t="n">
+        <v>0</v>
+      </c>
+      <c r="E506" t="n">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>22/02/2026</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>04:53</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>PEDRO BEICHT</t>
+        </is>
+      </c>
+      <c r="D507" t="n">
+        <v>0</v>
+      </c>
+      <c r="E507" t="n">
+        <v>18.9</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>22/02/2026</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>04:53</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>RIO PIAGUI</t>
+        </is>
+      </c>
+      <c r="D508" t="n">
+        <v>0</v>
+      </c>
+      <c r="E508" t="n">
+        <v>17.3</v>
       </c>
     </row>
   </sheetData>

--- a/monitoramento_chuvas.xlsx
+++ b/monitoramento_chuvas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E508"/>
+  <dimension ref="A1:E517"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12108,6 +12108,213 @@
       </c>
       <c r="E508" t="n">
         <v>17.3</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>22/02/2026</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>06:01</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>ATIBAINHA</t>
+        </is>
+      </c>
+      <c r="D509" t="n">
+        <v>0</v>
+      </c>
+      <c r="E509" t="n">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>22/02/2026</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>06:01</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>BIRITIBA</t>
+        </is>
+      </c>
+      <c r="D510" t="n">
+        <v>0</v>
+      </c>
+      <c r="E510" t="n">
+        <v>19.1</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>22/02/2026</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>06:01</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>ENGORDADOR</t>
+        </is>
+      </c>
+      <c r="D511" t="n">
+        <v>0</v>
+      </c>
+      <c r="E511" t="n">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>22/02/2026</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>06:01</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>FAZENDA CONQUISTA</t>
+        </is>
+      </c>
+      <c r="D512" t="n">
+        <v>0</v>
+      </c>
+      <c r="E512" t="n">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>22/02/2026</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>06:02</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>FAZENDA MOSA</t>
+        </is>
+      </c>
+      <c r="D513" t="n">
+        <v>0</v>
+      </c>
+      <c r="E513" t="n">
+        <v>19.4</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>22/02/2026</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>06:02</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>PAIVA CASTRO</t>
+        </is>
+      </c>
+      <c r="D514" t="n">
+        <v>0</v>
+      </c>
+      <c r="E514" t="n">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>22/02/2026</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>06:02</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>PARQUE TORONTO</t>
+        </is>
+      </c>
+      <c r="D515" t="n">
+        <v>0</v>
+      </c>
+      <c r="E515" t="n">
+        <v>19.6</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>22/02/2026</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>06:02</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>PEDRO BEICHT</t>
+        </is>
+      </c>
+      <c r="D516" t="n">
+        <v>0</v>
+      </c>
+      <c r="E516" t="n">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>22/02/2026</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>06:02</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>RIO PIAGUI</t>
+        </is>
+      </c>
+      <c r="D517" t="n">
+        <v>0</v>
+      </c>
+      <c r="E517" t="n">
+        <v>17.2</v>
       </c>
     </row>
   </sheetData>

--- a/monitoramento_chuvas.xlsx
+++ b/monitoramento_chuvas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E517"/>
+  <dimension ref="A1:E526"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12315,6 +12315,213 @@
       </c>
       <c r="E517" t="n">
         <v>17.2</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>22/02/2026</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>07:55</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>ATIBAINHA</t>
+        </is>
+      </c>
+      <c r="D518" t="n">
+        <v>0</v>
+      </c>
+      <c r="E518" t="n">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>22/02/2026</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>07:55</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>BIRITIBA</t>
+        </is>
+      </c>
+      <c r="D519" t="n">
+        <v>0</v>
+      </c>
+      <c r="E519" t="n">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>22/02/2026</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>07:55</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>ENGORDADOR</t>
+        </is>
+      </c>
+      <c r="D520" t="n">
+        <v>0</v>
+      </c>
+      <c r="E520" t="n">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>22/02/2026</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>07:55</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>FAZENDA CONQUISTA</t>
+        </is>
+      </c>
+      <c r="D521" t="n">
+        <v>0</v>
+      </c>
+      <c r="E521" t="n">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>22/02/2026</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>07:55</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>FAZENDA MOSA</t>
+        </is>
+      </c>
+      <c r="D522" t="n">
+        <v>0</v>
+      </c>
+      <c r="E522" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>22/02/2026</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>07:55</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>PAIVA CASTRO</t>
+        </is>
+      </c>
+      <c r="D523" t="n">
+        <v>0</v>
+      </c>
+      <c r="E523" t="n">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>22/02/2026</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>07:55</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>PARQUE TORONTO</t>
+        </is>
+      </c>
+      <c r="D524" t="n">
+        <v>0</v>
+      </c>
+      <c r="E524" t="n">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>22/02/2026</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>07:55</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>PEDRO BEICHT</t>
+        </is>
+      </c>
+      <c r="D525" t="n">
+        <v>0</v>
+      </c>
+      <c r="E525" t="n">
+        <v>20.4</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>22/02/2026</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>07:55</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>RIO PIAGUI</t>
+        </is>
+      </c>
+      <c r="D526" t="n">
+        <v>0</v>
+      </c>
+      <c r="E526" t="n">
+        <v>18.8</v>
       </c>
     </row>
   </sheetData>
